--- a/Test data/TC10_SearchReservationMember.xlsx
+++ b/Test data/TC10_SearchReservationMember.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABA11C8-78F1-4C99-BDD2-7BAB330AB2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97026D21-E226-44ED-BD41-B5D1512C1984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="79">
   <si>
     <t>TDID</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Username</t>
@@ -684,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -709,49 +706,49 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -759,23 +756,23 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -783,23 +780,23 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -807,23 +804,23 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -831,23 +828,23 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -855,25 +852,25 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -881,25 +878,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -907,25 +904,25 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -933,25 +930,25 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -959,25 +956,25 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -985,25 +982,25 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1011,25 +1008,25 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1037,25 +1034,25 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1063,25 +1060,25 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1089,25 +1086,25 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1115,25 +1112,25 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1141,25 +1138,25 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1167,25 +1164,25 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1193,25 +1190,25 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1219,25 +1216,25 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1245,25 +1242,25 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1271,25 +1268,25 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1297,25 +1294,25 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1323,25 +1320,25 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1349,25 +1346,25 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1375,25 +1372,25 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1401,25 +1398,25 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1427,25 +1424,25 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1453,25 +1450,25 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1479,25 +1476,25 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1505,25 +1502,25 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1531,25 +1528,25 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -1557,25 +1554,25 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -1583,25 +1580,25 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -1609,25 +1606,25 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -1635,25 +1632,25 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1661,25 +1658,25 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -1687,25 +1684,25 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -1713,25 +1710,25 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -1739,25 +1736,25 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -1765,25 +1762,25 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -1791,25 +1788,25 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -1817,25 +1814,25 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -1843,25 +1840,25 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -1869,25 +1866,25 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -1895,25 +1892,25 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -1921,25 +1918,25 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -1947,25 +1944,25 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>

--- a/Test data/TC10_SearchReservationMember.xlsx
+++ b/Test data/TC10_SearchReservationMember.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97026D21-E226-44ED-BD41-B5D1512C1984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971C931E-1E03-47DD-8C88-0DC5D46E98B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="83">
   <si>
     <t>TDID</t>
   </si>
@@ -257,6 +257,18 @@
   </si>
   <si>
     <t>Booking type</t>
+  </si>
+  <si>
+    <t>Revised</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>TD49</t>
+  </si>
+  <si>
+    <t>TD50</t>
   </si>
 </sst>
 </file>
@@ -349,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -374,6 +386,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,26 +694,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="112.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="16.6328125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="13.54296875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,10 +744,16 @@
         <v>1</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -753,8 +776,10 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -777,8 +802,10 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -801,8 +828,10 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -825,8 +854,10 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -849,8 +880,10 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -875,8 +908,10 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -901,8 +936,10 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -927,8 +964,10 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -953,8 +992,10 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -979,8 +1020,10 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
@@ -1005,8 +1048,10 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -1031,8 +1076,10 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1057,8 +1104,10 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1083,8 +1132,10 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -1109,8 +1160,10 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1135,8 +1188,10 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -1161,8 +1216,10 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -1187,8 +1244,10 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -1213,8 +1272,10 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -1239,8 +1300,10 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
@@ -1265,8 +1328,10 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
@@ -1291,8 +1356,10 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
@@ -1317,8 +1384,10 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -1343,8 +1412,10 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -1369,8 +1440,10 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
@@ -1395,8 +1468,10 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -1421,8 +1496,10 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
@@ -1447,8 +1524,10 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
@@ -1473,8 +1552,10 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="5" t="s">
         <v>59</v>
       </c>
@@ -1499,8 +1580,10 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
@@ -1525,8 +1608,10 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="5" t="s">
         <v>61</v>
       </c>
@@ -1551,8 +1636,10 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="5" t="s">
         <v>62</v>
       </c>
@@ -1577,8 +1664,10 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="5" t="s">
         <v>63</v>
       </c>
@@ -1603,8 +1692,10 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="5" t="s">
         <v>64</v>
       </c>
@@ -1629,8 +1720,10 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="5" t="s">
         <v>65</v>
       </c>
@@ -1655,8 +1748,10 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="5" t="s">
         <v>66</v>
       </c>
@@ -1681,8 +1776,10 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="5" t="s">
         <v>67</v>
       </c>
@@ -1707,8 +1804,10 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="5" t="s">
         <v>68</v>
       </c>
@@ -1733,8 +1832,10 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="5" t="s">
         <v>69</v>
       </c>
@@ -1759,8 +1860,10 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="5" t="s">
         <v>70</v>
       </c>
@@ -1785,8 +1888,10 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="5" t="s">
         <v>71</v>
       </c>
@@ -1811,8 +1916,10 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="5" t="s">
         <v>72</v>
       </c>
@@ -1837,8 +1944,10 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="5" t="s">
         <v>73</v>
       </c>
@@ -1863,8 +1972,10 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="5" t="s">
         <v>74</v>
       </c>
@@ -1889,8 +2000,10 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="5" t="s">
         <v>75</v>
       </c>
@@ -1915,8 +2028,10 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="5" t="s">
         <v>76</v>
       </c>
@@ -1941,8 +2056,10 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="5" t="s">
         <v>77</v>
       </c>
@@ -1956,17 +2073,75 @@
         <v>19</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
